--- a/biology/Botanique/Corallinaceae/Corallinaceae.xlsx
+++ b/biology/Botanique/Corallinaceae/Corallinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Corallinaceae (ou Corallinacées) sont une famille d'algues rouges de l'ordre des Corallinales.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Corallina, dérivé du grec κοράλλι / korálli, corail, en raison de la ressemblance de l'algue (en forme et en couleur) avec son éponyme animal, le corail, nom vernaculaire d'animaux coloniaux invertébrés.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des sous-familles, tribus et genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (1 juin 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (1 juin 2013) :
 Alatocladia (Yendo) Johansen
 Amphiroa J.V.Lamouroux
 Arthrocardia Decaisne
@@ -594,7 +610,7 @@
 Spongites Kützing
 Tenarea Bory de Saint-Vincent
 Titanoderma Nägeli
-Selon ITIS      (2 septembre 2015)[3] :
+Selon ITIS      (2 septembre 2015) :
 Amphiroa J. V. Lamour.
 Archaeolithothamnion
 Archeolithamnium Foslie, 1898
@@ -633,7 +649,7 @@
 Tenarea
 Titanophora (Agardh) Feldmann, 1942
 Yamadaia
-Selon World Register of Marine Species                               (2 septembre 2015)[4] :
+Selon World Register of Marine Species                               (2 septembre 2015) :
 sous-famille Amphiroideae H.W. Johansen, 1969 (vide)
 sous-famille Corallinoideae (Areschoug) Foslie, 1908
 tribu Corallineae
